--- a/Mifos Automation Excels/Client/4846-DISBLOAN01JAN2015(AddCharge)-Make1stPMNTon15FEB2015(LateRepayement).xlsx
+++ b/Mifos Automation Excels/Client/4846-DISBLOAN01JAN2015(AddCharge)-Make1stPMNTon15FEB2015(LateRepayement).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
@@ -804,10 +804,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +816,7 @@
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -854,15 +854,16 @@
       <c r="M1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="9">
@@ -889,8 +890,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -926,15 +928,16 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
         <v>941.23</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7">
         <v>46.49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -972,15 +975,16 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1016,15 +1020,16 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1060,15 +1065,16 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1104,15 +1110,16 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1148,15 +1155,16 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1192,15 +1200,16 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1236,15 +1245,16 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1280,15 +1290,16 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1324,15 +1335,16 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1368,15 +1380,16 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1412,15 +1425,16 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1456,11 +1470,12 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
         <v>958.94</v>
       </c>
     </row>
